--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H2">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N2">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O2">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P2">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q2">
-        <v>5.943774808587626</v>
+        <v>8.68358551277</v>
       </c>
       <c r="R2">
-        <v>5.943774808587626</v>
+        <v>78.15226961493001</v>
       </c>
       <c r="S2">
-        <v>0.0007914300565432471</v>
+        <v>0.0009070164047113172</v>
       </c>
       <c r="T2">
-        <v>0.0007914300565432471</v>
+        <v>0.0009070164047113172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H3">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N3">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P3">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q3">
-        <v>15.65671691089292</v>
+        <v>16.49209938584855</v>
       </c>
       <c r="R3">
-        <v>15.65671691089292</v>
+        <v>148.428894472637</v>
       </c>
       <c r="S3">
-        <v>0.002084735163951142</v>
+        <v>0.001722629974576296</v>
       </c>
       <c r="T3">
-        <v>0.002084735163951142</v>
+        <v>0.001722629974576296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H4">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N4">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O4">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P4">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q4">
-        <v>64.98008342784262</v>
+        <v>79.47877624327411</v>
       </c>
       <c r="R4">
-        <v>64.98008342784262</v>
+        <v>715.3089861894671</v>
       </c>
       <c r="S4">
-        <v>0.008652277846593358</v>
+        <v>0.008301703688299836</v>
       </c>
       <c r="T4">
-        <v>0.008652277846593358</v>
+        <v>0.008301703688299834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H5">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N5">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O5">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P5">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q5">
-        <v>106.3359791773319</v>
+        <v>112.8572418147843</v>
       </c>
       <c r="R5">
-        <v>106.3359791773319</v>
+        <v>1015.715176333059</v>
       </c>
       <c r="S5">
-        <v>0.01415892975812371</v>
+        <v>0.0117881455265163</v>
       </c>
       <c r="T5">
-        <v>0.01415892975812371</v>
+        <v>0.0117881455265163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H6">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N6">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O6">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P6">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q6">
-        <v>117.273439591677</v>
+        <v>124.4105517390669</v>
       </c>
       <c r="R6">
-        <v>117.273439591677</v>
+        <v>1119.694965651602</v>
       </c>
       <c r="S6">
-        <v>0.01561528286585888</v>
+        <v>0.01299490989989961</v>
       </c>
       <c r="T6">
-        <v>0.01561528286585888</v>
+        <v>0.01299490989989961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H7">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N7">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O7">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P7">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q7">
-        <v>14.427882778905</v>
+        <v>16.75607182759022</v>
       </c>
       <c r="R7">
-        <v>14.427882778905</v>
+        <v>150.804646448312</v>
       </c>
       <c r="S7">
-        <v>0.001921112500259991</v>
+        <v>0.001750202379396781</v>
       </c>
       <c r="T7">
-        <v>0.001921112500259991</v>
+        <v>0.001750202379396781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H8">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N8">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O8">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P8">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q8">
-        <v>72.3066534499679</v>
+        <v>101.63712342742</v>
       </c>
       <c r="R8">
-        <v>72.3066534499679</v>
+        <v>914.73411084678</v>
       </c>
       <c r="S8">
-        <v>0.009627830910700193</v>
+        <v>0.01061618361917093</v>
       </c>
       <c r="T8">
-        <v>0.009627830910700193</v>
+        <v>0.01061618361917093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H9">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N9">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P9">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q9">
-        <v>190.4656283755129</v>
+        <v>193.0319610939224</v>
       </c>
       <c r="R9">
-        <v>190.4656283755129</v>
+        <v>1737.287649845302</v>
       </c>
       <c r="S9">
-        <v>0.02536102525569883</v>
+        <v>0.02016254173904417</v>
       </c>
       <c r="T9">
-        <v>0.02536102525569883</v>
+        <v>0.02016254173904417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H10">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N10">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O10">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P10">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q10">
-        <v>790.4896340922252</v>
+        <v>930.260222464387</v>
       </c>
       <c r="R10">
-        <v>790.4896340922252</v>
+        <v>8372.342002179483</v>
       </c>
       <c r="S10">
-        <v>0.105255881313431</v>
+        <v>0.09716738335619206</v>
       </c>
       <c r="T10">
-        <v>0.105255881313431</v>
+        <v>0.09716738335619207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H11">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N11">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O11">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P11">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q11">
-        <v>1293.58850953261</v>
+        <v>1320.938844805413</v>
       </c>
       <c r="R11">
-        <v>1293.58850953261</v>
+        <v>11888.44960324871</v>
       </c>
       <c r="S11">
-        <v>0.1722448881750893</v>
+        <v>0.1379744807138701</v>
       </c>
       <c r="T11">
-        <v>0.1722448881750893</v>
+        <v>0.1379744807138701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H12">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N12">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O12">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P12">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q12">
-        <v>1426.643880112963</v>
+        <v>1456.164689595299</v>
       </c>
       <c r="R12">
-        <v>1426.643880112963</v>
+        <v>13105.48220635769</v>
       </c>
       <c r="S12">
-        <v>0.1899615788057045</v>
+        <v>0.152099067773559</v>
       </c>
       <c r="T12">
-        <v>0.1899615788057045</v>
+        <v>0.152099067773559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H13">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N13">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O13">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P13">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q13">
-        <v>175.5167303114801</v>
+        <v>196.1216294807058</v>
       </c>
       <c r="R13">
-        <v>175.5167303114801</v>
+        <v>1765.094665326352</v>
       </c>
       <c r="S13">
-        <v>0.02337053812906961</v>
+        <v>0.02048526325860648</v>
       </c>
       <c r="T13">
-        <v>0.02337053812906961</v>
+        <v>0.02048526325860648</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H14">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N14">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O14">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P14">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q14">
-        <v>4.23371494783001</v>
+        <v>2.23423570643</v>
       </c>
       <c r="R14">
-        <v>4.23371494783001</v>
+        <v>20.10812135787</v>
       </c>
       <c r="S14">
-        <v>0.0005637308559718624</v>
+        <v>0.0002333700099738354</v>
       </c>
       <c r="T14">
-        <v>0.0005637308559718624</v>
+        <v>0.0002333700099738355</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H15">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N15">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O15">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P15">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q15">
-        <v>11.152185026226</v>
+        <v>4.243320603875889</v>
       </c>
       <c r="R15">
-        <v>11.152185026226</v>
+        <v>38.189885434883</v>
       </c>
       <c r="S15">
-        <v>0.00148494428374619</v>
+        <v>0.0004432226057433315</v>
       </c>
       <c r="T15">
-        <v>0.00148494428374619</v>
+        <v>0.0004432226057433316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H16">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N16">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O16">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P16">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q16">
-        <v>46.28492151523319</v>
+        <v>20.44942374609478</v>
       </c>
       <c r="R16">
-        <v>46.28492151523319</v>
+        <v>184.044813714853</v>
       </c>
       <c r="S16">
-        <v>0.006162965326172101</v>
+        <v>0.002135979749070779</v>
       </c>
       <c r="T16">
-        <v>0.006162965326172101</v>
+        <v>0.002135979749070779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H17">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N17">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O17">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P17">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q17">
-        <v>75.74247663029946</v>
+        <v>29.03750749284233</v>
       </c>
       <c r="R17">
-        <v>75.74247663029946</v>
+        <v>261.337567435581</v>
       </c>
       <c r="S17">
-        <v>0.01008532027082091</v>
+        <v>0.003033020819476483</v>
       </c>
       <c r="T17">
-        <v>0.01008532027082091</v>
+        <v>0.003033020819476483</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H18">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N18">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O18">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P18">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q18">
-        <v>83.53316371699867</v>
+        <v>32.01010648692422</v>
       </c>
       <c r="R18">
-        <v>83.53316371699867</v>
+        <v>288.090958382318</v>
       </c>
       <c r="S18">
-        <v>0.01112267180584689</v>
+        <v>0.003343514226640566</v>
       </c>
       <c r="T18">
-        <v>0.01112267180584689</v>
+        <v>0.003343514226640567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H19">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N19">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O19">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P19">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q19">
-        <v>10.27689388540346</v>
+        <v>4.311239167467555</v>
       </c>
       <c r="R19">
-        <v>10.27689388540346</v>
+        <v>38.801152507208</v>
       </c>
       <c r="S19">
-        <v>0.001368396847246388</v>
+        <v>0.0004503168240557414</v>
       </c>
       <c r="T19">
-        <v>0.001368396847246388</v>
+        <v>0.0004503168240557415</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H20">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N20">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O20">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P20">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q20">
-        <v>55.02757910059761</v>
+        <v>5.9378116392</v>
       </c>
       <c r="R20">
-        <v>55.02757910059761</v>
+        <v>53.4403047528</v>
       </c>
       <c r="S20">
-        <v>0.007327074366293588</v>
+        <v>0.0006202152966559777</v>
       </c>
       <c r="T20">
-        <v>0.007327074366293588</v>
+        <v>0.0006202152966559778</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H21">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N21">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O21">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P21">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q21">
-        <v>144.95017998075</v>
+        <v>11.27725172328</v>
       </c>
       <c r="R21">
-        <v>144.95017998075</v>
+        <v>101.49526550952</v>
       </c>
       <c r="S21">
-        <v>0.01930051740391867</v>
+        <v>0.001177929588881433</v>
       </c>
       <c r="T21">
-        <v>0.01930051740391867</v>
+        <v>0.001177929588881433</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H22">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N22">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O22">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P22">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q22">
-        <v>601.5868359653933</v>
+        <v>54.34736629848</v>
       </c>
       <c r="R22">
-        <v>601.5868359653933</v>
+        <v>489.12629668632</v>
       </c>
       <c r="S22">
-        <v>0.08010295122821111</v>
+        <v>0.005676681908997741</v>
       </c>
       <c r="T22">
-        <v>0.08010295122821111</v>
+        <v>0.005676681908997741</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H23">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N23">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O23">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P23">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q23">
-        <v>984.4604975555189</v>
+        <v>77.17146828695999</v>
       </c>
       <c r="R23">
-        <v>984.4604975555189</v>
+        <v>694.5432145826398</v>
       </c>
       <c r="S23">
-        <v>0.1310836383167243</v>
+        <v>0.008060701148044979</v>
       </c>
       <c r="T23">
-        <v>0.1310836383167243</v>
+        <v>0.008060701148044977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H24">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N24">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O24">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P24">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q24">
-        <v>1085.719712026507</v>
+        <v>85.07158950287999</v>
       </c>
       <c r="R24">
-        <v>1085.719712026507</v>
+        <v>765.6443055259199</v>
       </c>
       <c r="S24">
-        <v>0.144566582811612</v>
+        <v>0.008885883272584407</v>
       </c>
       <c r="T24">
-        <v>0.144566582811612</v>
+        <v>0.008885883272584407</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.73368</v>
+      </c>
+      <c r="H25">
+        <v>2.20104</v>
+      </c>
+      <c r="I25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N25">
+        <v>46.850488</v>
+      </c>
+      <c r="O25">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P25">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q25">
+        <v>11.45775534528</v>
+      </c>
+      <c r="R25">
+        <v>103.11979810752</v>
+      </c>
+      <c r="S25">
+        <v>0.001196783522665242</v>
+      </c>
+      <c r="T25">
+        <v>0.001196783522665242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.253455</v>
+      </c>
+      <c r="I26">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J26">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.09319</v>
+      </c>
+      <c r="N26">
+        <v>24.27957</v>
+      </c>
+      <c r="O26">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="P26">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="Q26">
+        <v>0.68375315715</v>
+      </c>
+      <c r="R26">
+        <v>6.15377841435</v>
+      </c>
+      <c r="S26">
+        <v>7.14192690791357E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.14192690791357E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.253455</v>
+      </c>
+      <c r="I27">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J27">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.37080433333333</v>
+      </c>
+      <c r="N27">
+        <v>46.112413</v>
+      </c>
+      <c r="O27">
+        <v>0.04598019497220903</v>
+      </c>
+      <c r="P27">
+        <v>0.04598019497220902</v>
+      </c>
+      <c r="Q27">
+        <v>1.298602404101666</v>
+      </c>
+      <c r="R27">
+        <v>11.687421636915</v>
+      </c>
+      <c r="S27">
+        <v>0.0001356413985888232</v>
+      </c>
+      <c r="T27">
+        <v>0.0001356413985888232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.253455</v>
+      </c>
+      <c r="I28">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J28">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>74.07502766666667</v>
+      </c>
+      <c r="N28">
+        <v>222.225083</v>
+      </c>
+      <c r="O28">
+        <v>0.2215878974725382</v>
+      </c>
+      <c r="P28">
+        <v>0.2215878974725381</v>
+      </c>
+      <c r="Q28">
+        <v>6.258228712418333</v>
+      </c>
+      <c r="R28">
+        <v>56.324058411765</v>
+      </c>
+      <c r="S28">
+        <v>0.0006536834465729938</v>
+      </c>
+      <c r="T28">
+        <v>0.0006536834465729938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.253455</v>
+      </c>
+      <c r="I29">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J29">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>105.184097</v>
+      </c>
+      <c r="N29">
+        <v>315.552291</v>
+      </c>
+      <c r="O29">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="P29">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="Q29">
+        <v>8.886478435044998</v>
+      </c>
+      <c r="R29">
+        <v>79.97830591540499</v>
+      </c>
+      <c r="S29">
+        <v>0.0009282089418991658</v>
+      </c>
+      <c r="T29">
+        <v>0.0009282089418991658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.253455</v>
+      </c>
+      <c r="I30">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J30">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>115.9518993333333</v>
+      </c>
+      <c r="N30">
+        <v>347.855698</v>
+      </c>
+      <c r="O30">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="P30">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="Q30">
+        <v>9.796196215176664</v>
+      </c>
+      <c r="R30">
+        <v>88.16576593658999</v>
+      </c>
+      <c r="S30">
+        <v>0.001023230629544616</v>
+      </c>
+      <c r="T30">
+        <v>0.001023230629544616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.253455</v>
+      </c>
+      <c r="I31">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J31">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N31">
+        <v>46.850488</v>
+      </c>
+      <c r="O31">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P31">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q31">
+        <v>1.319387826226667</v>
+      </c>
+      <c r="R31">
+        <v>11.87449043604</v>
+      </c>
+      <c r="S31">
+        <v>0.0001378124739837163</v>
+      </c>
+      <c r="T31">
+        <v>0.0001378124739837163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H32">
+        <v>41.740472</v>
+      </c>
+      <c r="I32">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J32">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.09319</v>
+      </c>
+      <c r="N32">
+        <v>24.27957</v>
+      </c>
+      <c r="O32">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="P32">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="Q32">
+        <v>112.60452352856</v>
+      </c>
+      <c r="R32">
+        <v>1013.44071175704</v>
+      </c>
+      <c r="S32">
+        <v>0.0117617486388437</v>
+      </c>
+      <c r="T32">
+        <v>0.0117617486388437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H33">
+        <v>41.740472</v>
+      </c>
+      <c r="I33">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J33">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>15.37080433333333</v>
+      </c>
+      <c r="N33">
+        <v>46.112413</v>
+      </c>
+      <c r="O33">
+        <v>0.04598019497220903</v>
+      </c>
+      <c r="P33">
+        <v>0.04598019497220902</v>
+      </c>
+      <c r="Q33">
+        <v>213.8615426309929</v>
+      </c>
+      <c r="R33">
+        <v>1924.753883678936</v>
+      </c>
+      <c r="S33">
+        <v>0.02233822966537498</v>
+      </c>
+      <c r="T33">
+        <v>0.02233822966537498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H34">
+        <v>41.740472</v>
+      </c>
+      <c r="I34">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J34">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>74.07502766666667</v>
+      </c>
+      <c r="N34">
+        <v>222.225083</v>
+      </c>
+      <c r="O34">
+        <v>0.2215878974725382</v>
+      </c>
+      <c r="P34">
+        <v>0.2215878974725381</v>
+      </c>
+      <c r="Q34">
+        <v>1030.642206073242</v>
+      </c>
+      <c r="R34">
+        <v>9275.779854659177</v>
+      </c>
+      <c r="S34">
+        <v>0.1076524653234047</v>
+      </c>
+      <c r="T34">
+        <v>0.1076524653234047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="H25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="I25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="J25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>14.1337726524264</v>
-      </c>
-      <c r="N25">
-        <v>14.1337726524264</v>
-      </c>
-      <c r="O25">
-        <v>0.0444457431789883</v>
-      </c>
-      <c r="P25">
-        <v>0.0444457431789883</v>
-      </c>
-      <c r="Q25">
-        <v>133.5736104475669</v>
-      </c>
-      <c r="R25">
-        <v>133.5736104475669</v>
-      </c>
-      <c r="S25">
-        <v>0.01778569570241231</v>
-      </c>
-      <c r="T25">
-        <v>0.01778569570241231</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H35">
+        <v>41.740472</v>
+      </c>
+      <c r="I35">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J35">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>105.184097</v>
+      </c>
+      <c r="N35">
+        <v>315.552291</v>
+      </c>
+      <c r="O35">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="P35">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="Q35">
+        <v>1463.477951891261</v>
+      </c>
+      <c r="R35">
+        <v>13171.30156702135</v>
+      </c>
+      <c r="S35">
+        <v>0.1528629514094879</v>
+      </c>
+      <c r="T35">
+        <v>0.1528629514094879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H36">
+        <v>41.740472</v>
+      </c>
+      <c r="I36">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J36">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>115.9518993333333</v>
+      </c>
+      <c r="N36">
+        <v>347.855698</v>
+      </c>
+      <c r="O36">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="P36">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="Q36">
+        <v>1613.295669156606</v>
+      </c>
+      <c r="R36">
+        <v>14519.66102240945</v>
+      </c>
+      <c r="S36">
+        <v>0.1685116862640287</v>
+      </c>
+      <c r="T36">
+        <v>0.1685116862640287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H37">
+        <v>41.740472</v>
+      </c>
+      <c r="I37">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J37">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N37">
+        <v>46.850488</v>
+      </c>
+      <c r="O37">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P37">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q37">
+        <v>217.2846091722596</v>
+      </c>
+      <c r="R37">
+        <v>1955.561482550336</v>
+      </c>
+      <c r="S37">
+        <v>0.0226957752325582</v>
+      </c>
+      <c r="T37">
+        <v>0.0226957752325582</v>
       </c>
     </row>
   </sheetData>
